--- a/data/trans_orig/Q04B-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/Q04B-Provincia-trans_orig.xlsx
@@ -669,7 +669,7 @@
         <v>2.947380789491747</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>3.132560763421162</v>
+        <v>3.132560763421161</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>3.057621792943957</v>
@@ -704,40 +704,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>2.894956940754398</v>
+        <v>2.890034417031078</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>2.959416185866493</v>
+        <v>2.945886939246328</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>2.845102772934067</v>
+        <v>2.848435511717853</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>3.064679212573902</v>
+        <v>3.050476075849539</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>2.965587857047725</v>
+        <v>2.973363698962094</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>3.032629791874291</v>
+        <v>3.023822372531273</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>2.80850804708343</v>
+        <v>2.804293704757962</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>3.026499989573673</v>
+        <v>3.025467705783935</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>2.952666068749196</v>
+        <v>2.956284497905636</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>3.016588999031772</v>
+        <v>3.023493199620736</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>2.853110168392107</v>
+        <v>2.850826262610882</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>3.063371192410456</v>
+        <v>3.061559710626093</v>
       </c>
     </row>
     <row r="6">
@@ -748,40 +748,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>3.0814722584814</v>
+        <v>3.065309880213646</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>3.150152951321272</v>
+        <v>3.1430709485961</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>3.056073903186495</v>
+        <v>3.044108993984259</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>3.219091713191236</v>
+        <v>3.204568806118346</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>3.149224233334071</v>
+        <v>3.144266526715452</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>3.214743889589962</v>
+        <v>3.218501529236586</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>2.976855738522534</v>
+        <v>2.982003192545107</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>3.136920748297387</v>
+        <v>3.130062602073561</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>3.083922770310823</v>
+        <v>3.084979141874302</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>3.153921737470966</v>
+        <v>3.154504760214421</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>2.98501849517694</v>
+        <v>2.987169825522052</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>3.152866439830551</v>
+        <v>3.162396925986558</v>
       </c>
     </row>
     <row r="7">
@@ -817,7 +817,7 @@
         <v>2.986161122805225</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>3.134476788010927</v>
+        <v>3.134476788010928</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>2.977825370594893</v>
@@ -840,40 +840,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>2.941409448130886</v>
+        <v>2.941840718925039</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>2.93280928301957</v>
+        <v>2.934920079275781</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>2.833670270577624</v>
+        <v>2.831783289046203</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>2.99849400833003</v>
+        <v>3.011483032370589</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>2.879940233959823</v>
+        <v>2.890901200596375</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>2.973220883665274</v>
+        <v>2.969382822032255</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>2.92925768470141</v>
+        <v>2.925947124218837</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>3.074838556851796</v>
+        <v>3.07969914620207</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>2.927681369461147</v>
+        <v>2.929521194134102</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>2.97036914273123</v>
+        <v>2.968924040678021</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>2.897694919058016</v>
+        <v>2.897729248147022</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>3.06363137582466</v>
+        <v>3.061401290730577</v>
       </c>
     </row>
     <row r="9">
@@ -884,40 +884,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>3.071372728338864</v>
+        <v>3.076053267840576</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>3.058357167684931</v>
+        <v>3.053340899146979</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>2.943906821955303</v>
+        <v>2.940784224201542</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>3.174636726003671</v>
+        <v>3.17816433395202</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>3.011905728949439</v>
+        <v>3.019892315197596</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>3.084333590835045</v>
+        <v>3.087882035146497</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>3.065879917269339</v>
+        <v>3.05281443794428</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>3.196751792073995</v>
+        <v>3.198788384920615</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>3.023944568059384</v>
+        <v>3.023641875745556</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>3.054619004285031</v>
+        <v>3.051226151892895</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>2.979489433661549</v>
+        <v>2.987272367539653</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>3.168498021811079</v>
+        <v>3.168187994586831</v>
       </c>
     </row>
     <row r="10">
@@ -953,7 +953,7 @@
         <v>3.041568435420916</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>3.066204643359666</v>
+        <v>3.066204643359667</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>3.023277504722899</v>
@@ -976,40 +976,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>2.928335954099272</v>
+        <v>2.923554602598173</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>3.050395495963679</v>
+        <v>3.046734695582408</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>3.070927756594157</v>
+        <v>3.076852870887699</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>2.981113362392355</v>
+        <v>2.986654077141122</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>2.956286460780674</v>
+        <v>2.958356823411016</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>3.027185129716815</v>
+        <v>3.023544467001842</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>2.981370229599134</v>
+        <v>2.983647434128586</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>3.01153119547045</v>
+        <v>3.008286830036681</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>2.966965149284078</v>
+        <v>2.971376117254884</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>3.057867226364048</v>
+        <v>3.061541706882808</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>3.043367791631041</v>
+        <v>3.043764498286786</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>3.018140416884595</v>
+        <v>3.019512605307264</v>
       </c>
     </row>
     <row r="12">
@@ -1020,40 +1020,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>3.084188337721016</v>
+        <v>3.078433921502857</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>3.256887274985806</v>
+        <v>3.247595043385055</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>3.234564355945488</v>
+        <v>3.233884618028587</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>3.150109031445689</v>
+        <v>3.148203697604719</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>3.122351520892695</v>
+        <v>3.120855734546163</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>3.186648252998321</v>
+        <v>3.180996442170672</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>3.102470212695015</v>
+        <v>3.106083488397198</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>3.131860846738306</v>
+        <v>3.122855039662399</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>3.07852480421906</v>
+        <v>3.08434247213427</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>3.186770199145981</v>
+        <v>3.186119406046149</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>3.149313291858399</v>
+        <v>3.147991430539117</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>3.1200699266206</v>
+        <v>3.118944811695139</v>
       </c>
     </row>
     <row r="13">
@@ -1077,7 +1077,7 @@
         <v>2.940010794956527</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>3.069887489472805</v>
+        <v>3.069887489472806</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>3.146561788941732</v>
@@ -1112,40 +1112,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>3.116824483433927</v>
+        <v>3.117639283176592</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>2.988909950970903</v>
+        <v>2.991477522943783</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2.864183661208346</v>
+        <v>2.850507485682227</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>2.994375037456673</v>
+        <v>2.984267292960801</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>3.06589483354921</v>
+        <v>3.072046868912556</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>2.98702653657386</v>
+        <v>2.987234212312663</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>2.990312622063484</v>
+        <v>2.982510458918055</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>2.973328347849455</v>
+        <v>2.981104815653151</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>3.117882286730608</v>
+        <v>3.112544391924533</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3.007299392979876</v>
+        <v>3.004263597821472</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>2.945434005943967</v>
+        <v>2.950211597854069</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>3.0046994695589</v>
+        <v>3.007058122112963</v>
       </c>
     </row>
     <row r="15">
@@ -1156,40 +1156,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>3.277505453765899</v>
+        <v>3.275797412907421</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>3.159923320984769</v>
+        <v>3.158863134601343</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>3.022678221022863</v>
+        <v>3.015193955934848</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>3.163943400063916</v>
+        <v>3.159485278682998</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>3.218931791254113</v>
+        <v>3.223230119453389</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>3.145143427152898</v>
+        <v>3.138418041007313</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>3.162474188668137</v>
+        <v>3.152832124973653</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>3.093804008989354</v>
+        <v>3.097189494347272</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>3.223402954364129</v>
+        <v>3.225852247773027</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>3.127602998407254</v>
+        <v>3.12197858173104</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>3.067760810997362</v>
+        <v>3.071768554486271</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>3.106832739612973</v>
+        <v>3.102541596880377</v>
       </c>
     </row>
     <row r="16">
@@ -1225,7 +1225,7 @@
         <v>3.275562429587918</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>3.336130661271257</v>
+        <v>3.336130661271258</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>3.253100909889964</v>
@@ -1237,7 +1237,7 @@
         <v>3.274185553137707</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>3.357072457753542</v>
+        <v>3.357072457753543</v>
       </c>
     </row>
     <row r="17">
@@ -1248,40 +1248,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>3.130140402533252</v>
+        <v>3.131974106642587</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>3.123389269962552</v>
+        <v>3.115678913498416</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3.200728223421771</v>
+        <v>3.19732144113297</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3.298260460337589</v>
+        <v>3.302937186702477</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>3.200749835399907</v>
+        <v>3.187639852974423</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>3.162381223881663</v>
+        <v>3.166421037274661</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>3.20616257753359</v>
+        <v>3.202027831687266</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>3.280593527360926</v>
+        <v>3.283230982391387</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>3.188773154802638</v>
+        <v>3.190780056154726</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3.168595789596077</v>
+        <v>3.163169894343081</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3.221104734100433</v>
+        <v>3.225065678455496</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>3.30560993908118</v>
+        <v>3.311208069509513</v>
       </c>
     </row>
     <row r="18">
@@ -1292,40 +1292,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>3.310206503470296</v>
+        <v>3.307488984229646</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>3.302531872450395</v>
+        <v>3.299394081298432</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>3.356851189648083</v>
+        <v>3.361096151704825</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>3.461189374152159</v>
+        <v>3.465314219547375</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>3.387245548520078</v>
+        <v>3.37574254053552</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>3.390727475229009</v>
+        <v>3.393944350070285</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>3.354246467822446</v>
+        <v>3.361943766626436</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>3.394125200225989</v>
+        <v>3.391697444792529</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>3.316527946295496</v>
+        <v>3.312396949782879</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>3.322404524853355</v>
+        <v>3.314195869147651</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>3.332650493258871</v>
+        <v>3.331517812733704</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>3.407570686707703</v>
+        <v>3.406979294046619</v>
       </c>
     </row>
     <row r="19">
@@ -1349,7 +1349,7 @@
         <v>4.451081585573709</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>3.035018992023044</v>
+        <v>3.035018992023043</v>
       </c>
       <c r="G19" s="5" t="n">
         <v>3.131287593304441</v>
@@ -1361,7 +1361,7 @@
         <v>4.485974501160592</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>3.054047757660517</v>
+        <v>3.054047757660516</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>3.125678309105795</v>
@@ -1384,40 +1384,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>3.040433495212643</v>
+        <v>3.038811237235758</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>3.083231130400141</v>
+        <v>3.070903256787008</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>4.281579822704776</v>
+        <v>4.277283224897353</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>2.962645936678083</v>
+        <v>2.965920039888892</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>3.047955199593168</v>
+        <v>3.057750344965999</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>3.109239150704083</v>
+        <v>3.106719322471809</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>4.321829319771027</v>
+        <v>4.311795314514118</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>2.994830072581229</v>
+        <v>2.995903295881361</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>3.064111812626262</v>
+        <v>3.066496360682126</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>3.127185034513416</v>
+        <v>3.123812093126673</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>4.336189301701245</v>
+        <v>4.347462852274592</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>2.989063298779709</v>
+        <v>2.993711381110811</v>
       </c>
     </row>
     <row r="21">
@@ -1428,40 +1428,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>3.207142052648466</v>
+        <v>3.197886004331478</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>3.266605788987845</v>
+        <v>3.247774078577688</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>4.658842602926063</v>
+        <v>4.64665622774432</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>3.101534019916707</v>
+        <v>3.103756101378101</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>3.209039862175363</v>
+        <v>3.21205898779711</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>3.302988637465222</v>
+        <v>3.305975058827095</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>4.663853069890223</v>
+        <v>4.671501488108476</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>3.11524064161313</v>
+        <v>3.116090522150829</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>3.183223451084721</v>
+        <v>3.18443309138893</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>3.259471416623983</v>
+        <v>3.259253783031819</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>4.593574068838215</v>
+        <v>4.601676389411527</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>3.087874728649194</v>
+        <v>3.085221844203373</v>
       </c>
     </row>
     <row r="22">
@@ -1520,40 +1520,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>2.964480108526547</v>
+        <v>2.965132471899419</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>2.881711856302796</v>
+        <v>2.885359935006453</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2.849102169008697</v>
+        <v>2.857389036790572</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>2.961409079967198</v>
+        <v>2.959209571678328</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>2.94196912577296</v>
+        <v>2.940990676394717</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>2.82365339217355</v>
+        <v>2.8184991405886</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>2.875043201567358</v>
+        <v>2.869876759022037</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>3.036557882820843</v>
+        <v>3.038085467441478</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>2.96828510550846</v>
+        <v>2.968111478832027</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>2.869433049980428</v>
+        <v>2.873851040754037</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>2.879347274045327</v>
+        <v>2.878161310859894</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>3.018000263990632</v>
+        <v>3.016273790042794</v>
       </c>
     </row>
     <row r="24">
@@ -1564,40 +1564,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>3.094406611561246</v>
+        <v>3.09913509475036</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>3.012072512879873</v>
+        <v>3.007461916258263</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>2.978530369974833</v>
+        <v>2.985411417441599</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>3.11410689527822</v>
+        <v>3.105978233828516</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>3.056449575540701</v>
+        <v>3.05319839439159</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>2.940189470006649</v>
+        <v>2.933560967880859</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>3.006149791446983</v>
+        <v>2.996321349866735</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>3.12528631970111</v>
+        <v>3.128399771380777</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>3.057905408462867</v>
+        <v>3.059029802793177</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>2.953098921754564</v>
+        <v>2.960883667271556</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>2.972965324999081</v>
+        <v>2.970296528717928</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>3.102490352625768</v>
+        <v>3.102501722560082</v>
       </c>
     </row>
     <row r="25">
@@ -1645,7 +1645,7 @@
         <v>3.245439585507104</v>
       </c>
       <c r="N25" s="5" t="n">
-        <v>3.515767812276074</v>
+        <v>3.515767812276073</v>
       </c>
     </row>
     <row r="26">
@@ -1656,40 +1656,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>3.114916018827623</v>
+        <v>3.116593510936567</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>2.98715744397491</v>
+        <v>2.990835947345557</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3.201955715815322</v>
+        <v>3.196947458678567</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3.478390817779611</v>
+        <v>3.486187835102882</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>3.129118844091202</v>
+        <v>3.124453765907792</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>3.011049530993583</v>
+        <v>3.008718385119599</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>3.190746955522681</v>
+        <v>3.186592048345433</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>3.438151575528963</v>
+        <v>3.441956879559813</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>3.136441602429225</v>
+        <v>3.131647057621791</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3.010815832167735</v>
+        <v>3.01506400205238</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3.210964902126666</v>
+        <v>3.210339771058408</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>3.477900233204358</v>
+        <v>3.478719211973975</v>
       </c>
     </row>
     <row r="27">
@@ -1700,40 +1700,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>3.218673024286508</v>
+        <v>3.220778823657325</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>3.095907562612402</v>
+        <v>3.09718637136938</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>3.305439843415567</v>
+        <v>3.302428379824202</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>3.597085551802429</v>
+        <v>3.601360046369887</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>3.238785609000291</v>
+        <v>3.229339452836602</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>3.113252772415241</v>
+        <v>3.114741667656406</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>3.297017429992959</v>
+        <v>3.285976775528859</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>3.536202815305335</v>
+        <v>3.538091334646135</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>3.21399154858685</v>
+        <v>3.211194990869111</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>3.088505227060861</v>
+        <v>3.090813529741284</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>3.283483022274501</v>
+        <v>3.287407816454698</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>3.552239965054032</v>
+        <v>3.553667670675215</v>
       </c>
     </row>
     <row r="28">
@@ -1781,7 +1781,7 @@
         <v>3.166566917554041</v>
       </c>
       <c r="N28" s="5" t="n">
-        <v>3.19030285614805</v>
+        <v>3.190302856148051</v>
       </c>
     </row>
     <row r="29">
@@ -1792,40 +1792,40 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>3.063022082265296</v>
+        <v>3.065614088941859</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>3.0208915103551</v>
+        <v>3.024802789639986</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3.12774836782364</v>
+        <v>3.126241231720202</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3.163814384263349</v>
+        <v>3.163894288606149</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>3.061623565555469</v>
+        <v>3.062048595341742</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>3.028926257179146</v>
+        <v>3.028281582204472</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>3.143401961487057</v>
+        <v>3.144107488652554</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>3.166741536256982</v>
+        <v>3.166481460045382</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>3.069282273188272</v>
+        <v>3.070088953487561</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3.033388109678149</v>
+        <v>3.034513169280482</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>3.14525178911658</v>
+        <v>3.145847755490431</v>
       </c>
       <c r="N29" s="5" t="n">
-        <v>3.173839644616713</v>
+        <v>3.172321724017874</v>
       </c>
     </row>
     <row r="30">
@@ -1836,40 +1836,40 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>3.115856355727608</v>
+        <v>3.118086214821792</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>3.078213074816071</v>
+        <v>3.079025864842256</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>3.190296805341144</v>
+        <v>3.190441049006361</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>3.221985122882554</v>
+        <v>3.221494693009212</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>3.111848746747726</v>
+        <v>3.111912367800636</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>3.078518856966284</v>
+        <v>3.080767373803869</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>3.208965445374361</v>
+        <v>3.205423213515294</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>3.208989461740478</v>
+        <v>3.209483191302294</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>3.104426624204873</v>
+        <v>3.1058014523283</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>3.068930546542401</v>
+        <v>3.07124740243636</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>3.188734177036034</v>
+        <v>3.190934742057503</v>
       </c>
       <c r="N30" s="5" t="n">
-        <v>3.209312859288441</v>
+        <v>3.209352476543527</v>
       </c>
     </row>
     <row r="31">
